--- a/biology/Botanique/Bolusiella_zenkeri/Bolusiella_zenkeri.xlsx
+++ b/biology/Botanique/Bolusiella_zenkeri/Bolusiella_zenkeri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bolusiella zenkeri (Kraenzl.) Schltr. est une espèce de plantes épiphytes de la famille des orchidées.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son épithète spécifique zenkeri rend hommage au botaniste Georg August Zenker, actif au Kamerun allemand à la fin du XIXe siècle.
 </t>
@@ -542,7 +556,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On la retrouve en haute et en basse Guinée, au Liberia, au Ghana, au Cameroun, en Guinée équatoriale, au Gabon, en République du Congo.
 </t>
@@ -573,7 +589,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Bolusiella zenkeri est une plante épiphyte, à tige non ramifiée de 12-15 mm de long et entre-nœud de 1-4 mm de long. Les feuilles ne sont pas profondément sulcées sur la surface supérieure. Elle vit dans les forêts humides, les forêts secondaires humides et les plantations de cacao. Cette espèce se trouve à une altitude de 100 à 1 000 m.
 </t>
